--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t xml:space="preserve">Article</t>
   </si>
@@ -419,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1244,21 +1244,14 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>19</v>
+      <c r="A41" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
